--- a/Assets/Resources/CSV.data/StatInfo/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/StatInfo/EnemyBaseStat.xlsx
@@ -1038,7 +1038,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>

--- a/Assets/Resources/CSV.data/StatInfo/EnemyBaseStat.xlsx
+++ b/Assets/Resources/CSV.data/StatInfo/EnemyBaseStat.xlsx
@@ -1113,7 +1113,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1160,7 +1160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -1207,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
